--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XIII-В-28-2-200-3 (Фляга 0,2 л.)/XIII-В-28-2-200-3 (Фляга 0,2 л.) бронза от 10.06.2021.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XIII-В-28-2-200-3 (Фляга 0,2 л.)/XIII-В-28-2-200-3 (Фляга 0,2 л.) бронза от 10.06.2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XIII-В-28-2-200-3 (Фляга 0,2 л.)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F52223-F975-4936-AC55-50557673D771}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160F0802-5C6B-468D-A6B3-3C099E85C8EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -478,9 +478,6 @@
     <t xml:space="preserve"> (владелец ООО "ВЕДАТРАНЗИТ" Дог. аренды имущества №3 от 23.01.2019 г.)</t>
   </si>
   <si>
-    <t>Дата поставки  10.04.2020 (c остаточным ресурсом 100 %)</t>
-  </si>
-  <si>
     <t>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</t>
   </si>
   <si>
@@ -524,6 +521,9 @@
   </si>
   <si>
     <t>Зам. директора</t>
+  </si>
+  <si>
+    <t>Дата поставки  10.06.2021 (c остаточным ресурсом 100 %)</t>
   </si>
 </sst>
 </file>
@@ -3690,26 +3690,47 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="95" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="47" fillId="12" borderId="95" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3718,6 +3739,54 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3727,77 +3796,38 @@
     <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -3898,40 +3928,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -3951,84 +4029,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -4059,34 +4059,34 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6887,7 +6887,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="370" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D14" s="364">
         <v>32.5</v>
@@ -6897,13 +6897,13 @@
         <v>975</v>
       </c>
       <c r="F14" s="495" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G14" s="495"/>
       <c r="H14" s="495"/>
       <c r="I14" s="495"/>
       <c r="J14" s="496" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K14" s="496"/>
     </row>
@@ -6915,7 +6915,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="370" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D15" s="364">
         <v>3</v>
@@ -6933,7 +6933,7 @@
         <v>50</v>
       </c>
       <c r="C16" s="370" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" s="364">
         <v>34.200000000000003</v>
@@ -6951,7 +6951,7 @@
         <v>50</v>
       </c>
       <c r="C17" s="370" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D17" s="364">
         <v>1.3</v>
@@ -6969,7 +6969,7 @@
         <v>100</v>
       </c>
       <c r="C18" s="370" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D18" s="364">
         <v>1.29</v>
@@ -6987,7 +6987,7 @@
         <v>120</v>
       </c>
       <c r="C19" s="370" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D19" s="364">
         <v>0.3</v>
@@ -7005,7 +7005,7 @@
         <v>60</v>
       </c>
       <c r="C20" s="370" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D20" s="364">
         <v>0.5</v>
@@ -7023,7 +7023,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="370" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D21" s="364">
         <v>0.4</v>
@@ -7041,7 +7041,7 @@
         <v>30</v>
       </c>
       <c r="C22" s="370" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D22" s="364"/>
       <c r="E22" s="364">
@@ -7057,7 +7057,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="370" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D23" s="364">
         <v>1.7</v>
@@ -7075,7 +7075,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="370" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D24" s="364">
         <v>3</v>
@@ -7093,7 +7093,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="370" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D25" s="364">
         <v>1.5</v>
@@ -7111,7 +7111,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="370" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D26" s="364"/>
       <c r="E26" s="364"/>
@@ -7140,22 +7140,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="361" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F13:I13"/>
@@ -7215,24 +7215,24 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="604"/>
-      <c r="C2" s="605"/>
-      <c r="D2" s="606"/>
-      <c r="E2" s="613" t="s">
+      <c r="B2" s="601"/>
+      <c r="C2" s="602"/>
+      <c r="D2" s="603"/>
+      <c r="E2" s="610" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="614"/>
-      <c r="G2" s="614"/>
-      <c r="H2" s="615"/>
-      <c r="I2" s="619" t="s">
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="612"/>
+      <c r="I2" s="616" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="620"/>
-      <c r="K2" s="623">
+      <c r="J2" s="617"/>
+      <c r="K2" s="620">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="L2" s="624"/>
+      <c r="L2" s="621"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
@@ -7243,19 +7243,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="607"/>
-      <c r="C3" s="608"/>
-      <c r="D3" s="609"/>
-      <c r="E3" s="616" t="s">
+      <c r="B3" s="604"/>
+      <c r="C3" s="605"/>
+      <c r="D3" s="606"/>
+      <c r="E3" s="613" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="617"/>
-      <c r="G3" s="617"/>
-      <c r="H3" s="618"/>
-      <c r="I3" s="621"/>
-      <c r="J3" s="622"/>
-      <c r="K3" s="625"/>
-      <c r="L3" s="626"/>
+      <c r="F3" s="614"/>
+      <c r="G3" s="614"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="618"/>
+      <c r="J3" s="619"/>
+      <c r="K3" s="622"/>
+      <c r="L3" s="623"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7266,9 +7266,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="610"/>
-      <c r="C4" s="611"/>
-      <c r="D4" s="612"/>
+      <c r="B4" s="607"/>
+      <c r="C4" s="608"/>
+      <c r="D4" s="609"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7287,10 +7287,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="593" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="598"/>
+      <c r="C5" s="624"/>
       <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -7299,9 +7299,9 @@
       <c r="F5" s="508"/>
       <c r="G5" s="508"/>
       <c r="H5" s="509"/>
-      <c r="I5" s="599"/>
-      <c r="J5" s="600"/>
-      <c r="K5" s="601"/>
+      <c r="I5" s="625"/>
+      <c r="J5" s="626"/>
+      <c r="K5" s="627"/>
       <c r="L5" s="509"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
@@ -7313,21 +7313,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="593" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="598"/>
+      <c r="C6" s="624"/>
       <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="588"/>
-      <c r="F6" s="588"/>
-      <c r="G6" s="588"/>
-      <c r="H6" s="589"/>
-      <c r="I6" s="599"/>
-      <c r="J6" s="600"/>
-      <c r="K6" s="601"/>
+      <c r="E6" s="596"/>
+      <c r="F6" s="596"/>
+      <c r="G6" s="596"/>
+      <c r="H6" s="597"/>
+      <c r="I6" s="625"/>
+      <c r="J6" s="626"/>
+      <c r="K6" s="627"/>
       <c r="L6" s="509"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
@@ -7339,22 +7339,22 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="593" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="602"/>
+      <c r="C7" s="628"/>
       <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="595"/>
-      <c r="F7" s="595"/>
-      <c r="G7" s="595"/>
-      <c r="H7" s="596"/>
-      <c r="I7" s="603" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="629" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="602"/>
+      <c r="J7" s="628"/>
       <c r="K7" s="498">
         <f>Данные!D11</f>
         <v>44358</v>
@@ -7755,22 +7755,17 @@
       <c r="R21" s="463"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="552" t="s">
+      <c r="O22" s="562" t="s">
         <v>137</v>
       </c>
-      <c r="P22" s="552"/>
-      <c r="Q22" s="553" t="s">
+      <c r="P22" s="562"/>
+      <c r="Q22" s="563" t="s">
         <v>138</v>
       </c>
-      <c r="R22" s="554"/>
+      <c r="R22" s="564"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="B2:D4"/>
@@ -7787,6 +7782,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7852,47 +7852,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="604"/>
-      <c r="C2" s="605"/>
-      <c r="D2" s="606"/>
-      <c r="E2" s="613" t="s">
+      <c r="B2" s="601"/>
+      <c r="C2" s="602"/>
+      <c r="D2" s="603"/>
+      <c r="E2" s="610" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="614"/>
-      <c r="G2" s="614"/>
-      <c r="H2" s="615"/>
-      <c r="I2" s="619" t="s">
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="612"/>
+      <c r="I2" s="616" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="620"/>
-      <c r="K2" s="623">
+      <c r="J2" s="617"/>
+      <c r="K2" s="620">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="624"/>
+      <c r="L2" s="621"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="640"/>
-      <c r="Q2" s="640"/>
+      <c r="P2" s="643"/>
+      <c r="Q2" s="643"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="607"/>
-      <c r="C3" s="608"/>
-      <c r="D3" s="609"/>
-      <c r="E3" s="616" t="s">
+      <c r="B3" s="604"/>
+      <c r="C3" s="605"/>
+      <c r="D3" s="606"/>
+      <c r="E3" s="613" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="617"/>
-      <c r="G3" s="617"/>
-      <c r="H3" s="618"/>
-      <c r="I3" s="621"/>
-      <c r="J3" s="622"/>
-      <c r="K3" s="625"/>
-      <c r="L3" s="626"/>
+      <c r="F3" s="614"/>
+      <c r="G3" s="614"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="618"/>
+      <c r="J3" s="619"/>
+      <c r="K3" s="622"/>
+      <c r="L3" s="623"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7903,9 +7903,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="610"/>
-      <c r="C4" s="611"/>
-      <c r="D4" s="612"/>
+      <c r="B4" s="607"/>
+      <c r="C4" s="608"/>
+      <c r="D4" s="609"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7924,10 +7924,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="593" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="598"/>
+      <c r="C5" s="624"/>
       <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -7936,9 +7936,9 @@
       <c r="F5" s="508"/>
       <c r="G5" s="508"/>
       <c r="H5" s="509"/>
-      <c r="I5" s="599"/>
-      <c r="J5" s="600"/>
-      <c r="K5" s="601"/>
+      <c r="I5" s="625"/>
+      <c r="J5" s="626"/>
+      <c r="K5" s="627"/>
       <c r="L5" s="509"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
@@ -7950,21 +7950,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="593" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="598"/>
+      <c r="C6" s="624"/>
       <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="588"/>
-      <c r="F6" s="588"/>
-      <c r="G6" s="588"/>
-      <c r="H6" s="589"/>
-      <c r="I6" s="599"/>
-      <c r="J6" s="600"/>
-      <c r="K6" s="601"/>
+      <c r="E6" s="596"/>
+      <c r="F6" s="596"/>
+      <c r="G6" s="596"/>
+      <c r="H6" s="597"/>
+      <c r="I6" s="625"/>
+      <c r="J6" s="626"/>
+      <c r="K6" s="627"/>
       <c r="L6" s="509"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
@@ -7976,22 +7976,22 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="593" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="602"/>
+      <c r="C7" s="628"/>
       <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="595"/>
-      <c r="F7" s="595"/>
-      <c r="G7" s="595"/>
-      <c r="H7" s="596"/>
-      <c r="I7" s="603" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="629" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="602"/>
+      <c r="J7" s="628"/>
       <c r="K7" s="498">
         <f>Данные!D11</f>
         <v>44358</v>
@@ -8325,12 +8325,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="641" t="s">
+      <c r="B18" s="640" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="642"/>
-      <c r="D18" s="642"/>
-      <c r="E18" s="643"/>
+      <c r="C18" s="641"/>
+      <c r="D18" s="641"/>
+      <c r="E18" s="642"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8384,26 +8384,17 @@
       <c r="R21" s="463"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="552" t="s">
+      <c r="O22" s="562" t="s">
         <v>137</v>
       </c>
-      <c r="P22" s="552"/>
-      <c r="Q22" s="553" t="s">
+      <c r="P22" s="562"/>
+      <c r="Q22" s="563" t="s">
         <v>138</v>
       </c>
-      <c r="R22" s="554"/>
+      <c r="R22" s="564"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="P2:Q2"/>
@@ -8417,6 +8408,15 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="L21:N21"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8491,24 +8491,24 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="604"/>
-      <c r="C2" s="605"/>
-      <c r="D2" s="606"/>
-      <c r="E2" s="613" t="s">
+      <c r="B2" s="601"/>
+      <c r="C2" s="602"/>
+      <c r="D2" s="603"/>
+      <c r="E2" s="610" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="614"/>
-      <c r="G2" s="614"/>
-      <c r="H2" s="615"/>
-      <c r="I2" s="619" t="s">
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="612"/>
+      <c r="I2" s="616" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="620"/>
-      <c r="K2" s="623">
+      <c r="J2" s="617"/>
+      <c r="K2" s="620">
         <f>Данные!B25</f>
         <v>20</v>
       </c>
-      <c r="L2" s="624"/>
+      <c r="L2" s="621"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
@@ -8519,19 +8519,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="607"/>
-      <c r="C3" s="608"/>
-      <c r="D3" s="609"/>
-      <c r="E3" s="616" t="s">
+      <c r="B3" s="604"/>
+      <c r="C3" s="605"/>
+      <c r="D3" s="606"/>
+      <c r="E3" s="613" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="617"/>
-      <c r="G3" s="617"/>
-      <c r="H3" s="618"/>
-      <c r="I3" s="621"/>
-      <c r="J3" s="622"/>
-      <c r="K3" s="625"/>
-      <c r="L3" s="626"/>
+      <c r="F3" s="614"/>
+      <c r="G3" s="614"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="618"/>
+      <c r="J3" s="619"/>
+      <c r="K3" s="622"/>
+      <c r="L3" s="623"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8542,9 +8542,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="610"/>
-      <c r="C4" s="611"/>
-      <c r="D4" s="612"/>
+      <c r="B4" s="607"/>
+      <c r="C4" s="608"/>
+      <c r="D4" s="609"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8563,10 +8563,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="593" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="598"/>
+      <c r="C5" s="624"/>
       <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -8575,9 +8575,9 @@
       <c r="F5" s="508"/>
       <c r="G5" s="508"/>
       <c r="H5" s="509"/>
-      <c r="I5" s="599"/>
-      <c r="J5" s="600"/>
-      <c r="K5" s="601"/>
+      <c r="I5" s="625"/>
+      <c r="J5" s="626"/>
+      <c r="K5" s="627"/>
       <c r="L5" s="509"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
@@ -8589,21 +8589,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="593" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="598"/>
+      <c r="C6" s="624"/>
       <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="588"/>
-      <c r="F6" s="588"/>
-      <c r="G6" s="588"/>
-      <c r="H6" s="589"/>
-      <c r="I6" s="599"/>
-      <c r="J6" s="600"/>
-      <c r="K6" s="601"/>
+      <c r="E6" s="596"/>
+      <c r="F6" s="596"/>
+      <c r="G6" s="596"/>
+      <c r="H6" s="597"/>
+      <c r="I6" s="625"/>
+      <c r="J6" s="626"/>
+      <c r="K6" s="627"/>
       <c r="L6" s="509"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
@@ -8615,22 +8615,22 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="593" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="602"/>
+      <c r="C7" s="628"/>
       <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="595"/>
-      <c r="F7" s="595"/>
-      <c r="G7" s="595"/>
-      <c r="H7" s="596"/>
-      <c r="I7" s="603" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="629" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="602"/>
+      <c r="J7" s="628"/>
       <c r="K7" s="498">
         <f>Данные!D11</f>
         <v>44358</v>
@@ -8957,22 +8957,17 @@
       <c r="R19" s="463"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="552" t="s">
+      <c r="O20" s="562" t="s">
         <v>137</v>
       </c>
-      <c r="P20" s="552"/>
-      <c r="Q20" s="553" t="s">
+      <c r="P20" s="562"/>
+      <c r="Q20" s="563" t="s">
         <v>138</v>
       </c>
-      <c r="R20" s="554"/>
+      <c r="R20" s="564"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B2:D4"/>
@@ -8989,6 +8984,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
@@ -9045,47 +9045,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="604"/>
-      <c r="C2" s="605"/>
-      <c r="D2" s="606"/>
-      <c r="E2" s="613" t="s">
+      <c r="B2" s="601"/>
+      <c r="C2" s="602"/>
+      <c r="D2" s="603"/>
+      <c r="E2" s="610" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="614"/>
-      <c r="G2" s="614"/>
-      <c r="H2" s="615"/>
-      <c r="I2" s="619" t="s">
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="612"/>
+      <c r="I2" s="616" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="620"/>
-      <c r="K2" s="646">
+      <c r="J2" s="617"/>
+      <c r="K2" s="645">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="647"/>
+      <c r="L2" s="646"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="645"/>
-      <c r="Q2" s="645"/>
+      <c r="P2" s="649"/>
+      <c r="Q2" s="649"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="607"/>
-      <c r="C3" s="608"/>
-      <c r="D3" s="609"/>
-      <c r="E3" s="616" t="s">
+      <c r="B3" s="604"/>
+      <c r="C3" s="605"/>
+      <c r="D3" s="606"/>
+      <c r="E3" s="613" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="617"/>
-      <c r="G3" s="617"/>
-      <c r="H3" s="618"/>
-      <c r="I3" s="621"/>
-      <c r="J3" s="622"/>
-      <c r="K3" s="648"/>
-      <c r="L3" s="649"/>
+      <c r="F3" s="614"/>
+      <c r="G3" s="614"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="618"/>
+      <c r="J3" s="619"/>
+      <c r="K3" s="647"/>
+      <c r="L3" s="648"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -9096,9 +9096,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="610"/>
-      <c r="C4" s="611"/>
-      <c r="D4" s="612"/>
+      <c r="B4" s="607"/>
+      <c r="C4" s="608"/>
+      <c r="D4" s="609"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9117,10 +9117,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="593" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="598"/>
+      <c r="C5" s="624"/>
       <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -9129,9 +9129,9 @@
       <c r="F5" s="508"/>
       <c r="G5" s="508"/>
       <c r="H5" s="509"/>
-      <c r="I5" s="599"/>
-      <c r="J5" s="600"/>
-      <c r="K5" s="601"/>
+      <c r="I5" s="625"/>
+      <c r="J5" s="626"/>
+      <c r="K5" s="627"/>
       <c r="L5" s="509"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
@@ -9143,21 +9143,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="593" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="598"/>
+      <c r="C6" s="624"/>
       <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="588"/>
-      <c r="F6" s="588"/>
-      <c r="G6" s="588"/>
-      <c r="H6" s="589"/>
-      <c r="I6" s="599"/>
-      <c r="J6" s="600"/>
-      <c r="K6" s="601"/>
+      <c r="E6" s="596"/>
+      <c r="F6" s="596"/>
+      <c r="G6" s="596"/>
+      <c r="H6" s="597"/>
+      <c r="I6" s="625"/>
+      <c r="J6" s="626"/>
+      <c r="K6" s="627"/>
       <c r="L6" s="509"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
@@ -9169,22 +9169,22 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="593" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="602"/>
+      <c r="C7" s="628"/>
       <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="595"/>
-      <c r="F7" s="595"/>
-      <c r="G7" s="595"/>
-      <c r="H7" s="596"/>
-      <c r="I7" s="603" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="629" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="602"/>
+      <c r="J7" s="628"/>
       <c r="K7" s="498">
         <f>Данные!D11</f>
         <v>44358</v>
@@ -9258,7 +9258,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="375" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="280">
         <v>0.1</v>
@@ -9470,22 +9470,17 @@
       <c r="R18" s="463"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="552" t="s">
+      <c r="O19" s="562" t="s">
         <v>137</v>
       </c>
-      <c r="P19" s="552"/>
-      <c r="Q19" s="553" t="s">
+      <c r="P19" s="562"/>
+      <c r="Q19" s="563" t="s">
         <v>138</v>
       </c>
-      <c r="R19" s="554"/>
+      <c r="R19" s="564"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
@@ -9502,6 +9497,11 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9530,8 +9530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9585,17 +9585,17 @@
       <c r="L2" s="377"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="518" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="518"/>
-      <c r="C3" s="518"/>
-      <c r="D3" s="518"/>
-      <c r="E3" s="518"/>
-      <c r="F3" s="518"/>
-      <c r="G3" s="518"/>
-      <c r="H3" s="518"/>
-      <c r="I3" s="518"/>
+      <c r="A3" s="515" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="515"/>
+      <c r="C3" s="515"/>
+      <c r="D3" s="515"/>
+      <c r="E3" s="515"/>
+      <c r="F3" s="515"/>
+      <c r="G3" s="515"/>
+      <c r="H3" s="515"/>
+      <c r="I3" s="515"/>
       <c r="K3" s="378"/>
       <c r="L3" s="378"/>
       <c r="M3" s="379"/>
@@ -10073,7 +10073,7 @@
         <v>123</v>
       </c>
       <c r="J20" s="406" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K20" s="387"/>
       <c r="L20" s="387"/>
@@ -10087,7 +10087,7 @@
         <v>44060</v>
       </c>
       <c r="C21" s="482" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D21" s="408">
         <v>44075</v>
@@ -10344,12 +10344,12 @@
       <c r="J38" s="379"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="519" t="s">
+      <c r="A39" s="516" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="519"/>
-      <c r="C39" s="519"/>
-      <c r="D39" s="519"/>
+      <c r="B39" s="516"/>
+      <c r="C39" s="516"/>
+      <c r="D39" s="516"/>
       <c r="E39" s="379"/>
       <c r="F39" s="379"/>
       <c r="G39" s="379"/>
@@ -10358,10 +10358,10 @@
       <c r="J39" s="379"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="520" t="s">
+      <c r="A40" s="517" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="520"/>
+      <c r="B40" s="517"/>
       <c r="C40" s="434" t="s">
         <v>127</v>
       </c>
@@ -10376,11 +10376,11 @@
       <c r="J40" s="379"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="521">
+      <c r="A41" s="518">
         <f>A21-F35</f>
         <v>32554239</v>
       </c>
-      <c r="B41" s="522"/>
+      <c r="B41" s="519"/>
       <c r="C41" s="435">
         <f>1-G35</f>
         <v>0.9042844166666667</v>
@@ -10442,8 +10442,8 @@
       <c r="F45" s="439"/>
       <c r="G45" s="439"/>
       <c r="H45" s="439"/>
-      <c r="I45" s="513"/>
-      <c r="J45" s="514"/>
+      <c r="I45" s="520"/>
+      <c r="J45" s="521"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="440"/>
@@ -10537,9 +10537,9 @@
     </row>
     <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="379"/>
-      <c r="B55" s="516"/>
-      <c r="C55" s="516"/>
-      <c r="D55" s="517"/>
+      <c r="B55" s="513"/>
+      <c r="C55" s="513"/>
+      <c r="D55" s="514"/>
       <c r="E55" s="437"/>
       <c r="F55" s="379"/>
       <c r="G55" s="379"/>
@@ -10556,8 +10556,8 @@
       <c r="F56" s="439"/>
       <c r="G56" s="439"/>
       <c r="H56" s="439"/>
-      <c r="I56" s="513"/>
-      <c r="J56" s="514"/>
+      <c r="I56" s="520"/>
+      <c r="J56" s="521"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="440"/>
@@ -10568,8 +10568,8 @@
       <c r="F57" s="400"/>
       <c r="G57" s="400"/>
       <c r="H57" s="441"/>
-      <c r="I57" s="515"/>
-      <c r="J57" s="515"/>
+      <c r="I57" s="522"/>
+      <c r="J57" s="522"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="440"/>
@@ -10580,8 +10580,8 @@
       <c r="F58" s="398"/>
       <c r="G58" s="398"/>
       <c r="H58" s="398"/>
-      <c r="I58" s="515"/>
-      <c r="J58" s="515"/>
+      <c r="I58" s="522"/>
+      <c r="J58" s="522"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="379"/>
@@ -10594,26 +10594,26 @@
       <c r="H59" s="379"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B64" s="513"/>
-      <c r="C64" s="514"/>
+      <c r="B64" s="520"/>
+      <c r="C64" s="521"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B71" s="513"/>
-      <c r="C71" s="514"/>
+      <c r="B71" s="520"/>
+      <c r="C71" s="521"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B71:C71"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10628,7 +10628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K59"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -10655,7 +10655,7 @@
     </row>
     <row r="3" spans="1:11" s="357" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G3" s="309" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H3" s="310"/>
       <c r="I3" s="310"/>
@@ -10696,47 +10696,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="547" t="s">
+      <c r="A11" s="524" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="547"/>
-      <c r="C11" s="547"/>
-      <c r="D11" s="547"/>
-      <c r="E11" s="547"/>
-      <c r="F11" s="547"/>
-      <c r="G11" s="547"/>
-      <c r="H11" s="547"/>
-      <c r="I11" s="547"/>
-      <c r="J11" s="547"/>
+      <c r="B11" s="524"/>
+      <c r="C11" s="524"/>
+      <c r="D11" s="524"/>
+      <c r="E11" s="524"/>
+      <c r="F11" s="524"/>
+      <c r="G11" s="524"/>
+      <c r="H11" s="524"/>
+      <c r="I11" s="524"/>
+      <c r="J11" s="524"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="546" t="s">
+      <c r="A12" s="523" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="546"/>
-      <c r="C12" s="546"/>
-      <c r="D12" s="546"/>
-      <c r="E12" s="546"/>
-      <c r="F12" s="546"/>
-      <c r="G12" s="546"/>
-      <c r="H12" s="546"/>
-      <c r="I12" s="546"/>
-      <c r="J12" s="546"/>
+      <c r="B12" s="523"/>
+      <c r="C12" s="523"/>
+      <c r="D12" s="523"/>
+      <c r="E12" s="523"/>
+      <c r="F12" s="523"/>
+      <c r="G12" s="523"/>
+      <c r="H12" s="523"/>
+      <c r="I12" s="523"/>
+      <c r="J12" s="523"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="548" t="str">
+      <c r="A13" s="525" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="B13" s="547"/>
-      <c r="C13" s="547"/>
-      <c r="D13" s="547"/>
-      <c r="E13" s="547"/>
-      <c r="F13" s="547"/>
-      <c r="G13" s="547"/>
-      <c r="H13" s="547"/>
-      <c r="I13" s="547"/>
-      <c r="J13" s="547"/>
+      <c r="B13" s="524"/>
+      <c r="C13" s="524"/>
+      <c r="D13" s="524"/>
+      <c r="E13" s="524"/>
+      <c r="F13" s="524"/>
+      <c r="G13" s="524"/>
+      <c r="H13" s="524"/>
+      <c r="I13" s="524"/>
+      <c r="J13" s="524"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10861,493 +10861,493 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="544" t="s">
+      <c r="A22" s="529" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="544" t="s">
+      <c r="B22" s="529" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="544"/>
-      <c r="D22" s="544"/>
-      <c r="E22" s="544" t="s">
+      <c r="C22" s="529"/>
+      <c r="D22" s="529"/>
+      <c r="E22" s="529" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="544"/>
-      <c r="G22" s="545" t="s">
+      <c r="F22" s="529"/>
+      <c r="G22" s="547" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="544" t="s">
+      <c r="H22" s="529" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="544"/>
-      <c r="J22" s="544"/>
+      <c r="I22" s="529"/>
+      <c r="J22" s="529"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="544"/>
-      <c r="B23" s="544"/>
-      <c r="C23" s="544"/>
-      <c r="D23" s="544"/>
-      <c r="E23" s="544"/>
-      <c r="F23" s="544"/>
-      <c r="G23" s="545"/>
-      <c r="H23" s="544"/>
-      <c r="I23" s="544"/>
-      <c r="J23" s="544"/>
+      <c r="A23" s="529"/>
+      <c r="B23" s="529"/>
+      <c r="C23" s="529"/>
+      <c r="D23" s="529"/>
+      <c r="E23" s="529"/>
+      <c r="F23" s="529"/>
+      <c r="G23" s="547"/>
+      <c r="H23" s="529"/>
+      <c r="I23" s="529"/>
+      <c r="J23" s="529"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="523">
+      <c r="A24" s="530">
         <v>1</v>
       </c>
-      <c r="B24" s="549" t="s">
+      <c r="B24" s="544" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="550"/>
-      <c r="D24" s="551"/>
-      <c r="E24" s="528" t="str">
+      <c r="C24" s="545"/>
+      <c r="D24" s="546"/>
+      <c r="E24" s="532" t="str">
         <f>Данные!C14</f>
         <v>XIII-В-28-2-200-3</v>
       </c>
-      <c r="F24" s="529"/>
-      <c r="G24" s="532">
+      <c r="F24" s="533"/>
+      <c r="G24" s="536">
         <f>Данные!B14</f>
         <v>30</v>
       </c>
-      <c r="H24" s="534"/>
-      <c r="I24" s="535"/>
-      <c r="J24" s="536"/>
+      <c r="H24" s="538"/>
+      <c r="I24" s="539"/>
+      <c r="J24" s="540"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="524"/>
-      <c r="B25" s="540" t="str">
+      <c r="A25" s="531"/>
+      <c r="B25" s="526" t="str">
         <f>Данные!$A$29</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C25" s="541"/>
-      <c r="D25" s="542"/>
-      <c r="E25" s="543"/>
-      <c r="F25" s="531"/>
-      <c r="G25" s="533"/>
-      <c r="H25" s="537"/>
-      <c r="I25" s="538"/>
-      <c r="J25" s="539"/>
+      <c r="C25" s="527"/>
+      <c r="D25" s="528"/>
+      <c r="E25" s="534"/>
+      <c r="F25" s="535"/>
+      <c r="G25" s="537"/>
+      <c r="H25" s="541"/>
+      <c r="I25" s="542"/>
+      <c r="J25" s="543"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="523">
+      <c r="A26" s="530">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="525" t="s">
+      <c r="B26" s="548" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="526"/>
-      <c r="D26" s="527"/>
-      <c r="E26" s="528" t="str">
+      <c r="C26" s="549"/>
+      <c r="D26" s="550"/>
+      <c r="E26" s="532" t="str">
         <f>Данные!C15</f>
         <v>XIII-В-28-2-200-3</v>
       </c>
-      <c r="F26" s="529"/>
-      <c r="G26" s="532">
+      <c r="F26" s="533"/>
+      <c r="G26" s="536">
         <f>Данные!B15</f>
         <v>30</v>
       </c>
-      <c r="H26" s="534"/>
-      <c r="I26" s="535"/>
-      <c r="J26" s="536"/>
+      <c r="H26" s="538"/>
+      <c r="I26" s="539"/>
+      <c r="J26" s="540"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="524"/>
-      <c r="B27" s="540" t="str">
+      <c r="A27" s="531"/>
+      <c r="B27" s="526" t="str">
         <f>Данные!$A$29</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C27" s="541"/>
-      <c r="D27" s="542"/>
-      <c r="E27" s="543"/>
-      <c r="F27" s="531"/>
-      <c r="G27" s="533"/>
-      <c r="H27" s="537"/>
-      <c r="I27" s="538"/>
-      <c r="J27" s="539"/>
+      <c r="C27" s="527"/>
+      <c r="D27" s="528"/>
+      <c r="E27" s="534"/>
+      <c r="F27" s="535"/>
+      <c r="G27" s="537"/>
+      <c r="H27" s="541"/>
+      <c r="I27" s="542"/>
+      <c r="J27" s="543"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="523">
+      <c r="A28" s="530">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="525" t="s">
+      <c r="B28" s="548" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="526"/>
-      <c r="D28" s="527"/>
-      <c r="E28" s="528" t="str">
+      <c r="C28" s="549"/>
+      <c r="D28" s="550"/>
+      <c r="E28" s="532" t="str">
         <f>Данные!C16</f>
         <v>XIII-В-28-2-200-3</v>
       </c>
-      <c r="F28" s="529"/>
-      <c r="G28" s="532">
+      <c r="F28" s="533"/>
+      <c r="G28" s="536">
         <f>Данные!B16</f>
         <v>50</v>
       </c>
-      <c r="H28" s="534"/>
-      <c r="I28" s="535"/>
-      <c r="J28" s="536"/>
+      <c r="H28" s="538"/>
+      <c r="I28" s="539"/>
+      <c r="J28" s="540"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="524"/>
-      <c r="B29" s="540" t="str">
+      <c r="A29" s="531"/>
+      <c r="B29" s="526" t="str">
         <f>Данные!$A$29</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C29" s="541"/>
-      <c r="D29" s="542"/>
-      <c r="E29" s="543"/>
-      <c r="F29" s="531"/>
-      <c r="G29" s="533"/>
-      <c r="H29" s="537"/>
-      <c r="I29" s="538"/>
-      <c r="J29" s="539"/>
+      <c r="C29" s="527"/>
+      <c r="D29" s="528"/>
+      <c r="E29" s="534"/>
+      <c r="F29" s="535"/>
+      <c r="G29" s="537"/>
+      <c r="H29" s="541"/>
+      <c r="I29" s="542"/>
+      <c r="J29" s="543"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="523">
+      <c r="A30" s="530">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="525" t="s">
+      <c r="B30" s="548" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="526"/>
-      <c r="D30" s="527"/>
-      <c r="E30" s="528" t="str">
+      <c r="C30" s="549"/>
+      <c r="D30" s="550"/>
+      <c r="E30" s="532" t="str">
         <f>Данные!C17</f>
         <v>XIII-В-28-2-200-3</v>
       </c>
-      <c r="F30" s="529"/>
-      <c r="G30" s="532">
+      <c r="F30" s="533"/>
+      <c r="G30" s="536">
         <f>Данные!B17</f>
         <v>50</v>
       </c>
-      <c r="H30" s="534"/>
-      <c r="I30" s="535"/>
-      <c r="J30" s="536"/>
+      <c r="H30" s="538"/>
+      <c r="I30" s="539"/>
+      <c r="J30" s="540"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="524"/>
-      <c r="B31" s="540" t="str">
+      <c r="A31" s="531"/>
+      <c r="B31" s="526" t="str">
         <f>Данные!$A$29</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C31" s="541"/>
-      <c r="D31" s="542"/>
-      <c r="E31" s="530"/>
-      <c r="F31" s="531"/>
-      <c r="G31" s="533"/>
-      <c r="H31" s="537"/>
-      <c r="I31" s="538"/>
-      <c r="J31" s="539"/>
+      <c r="C31" s="527"/>
+      <c r="D31" s="528"/>
+      <c r="E31" s="551"/>
+      <c r="F31" s="535"/>
+      <c r="G31" s="537"/>
+      <c r="H31" s="541"/>
+      <c r="I31" s="542"/>
+      <c r="J31" s="543"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="523">
+      <c r="A32" s="530">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="525" t="s">
+      <c r="B32" s="548" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="526"/>
-      <c r="D32" s="527"/>
-      <c r="E32" s="528" t="str">
+      <c r="C32" s="549"/>
+      <c r="D32" s="550"/>
+      <c r="E32" s="532" t="str">
         <f>Данные!C18</f>
         <v>XIII-В-28-2-200-3</v>
       </c>
-      <c r="F32" s="529"/>
-      <c r="G32" s="532">
+      <c r="F32" s="533"/>
+      <c r="G32" s="536">
         <f>Данные!B18</f>
         <v>100</v>
       </c>
-      <c r="H32" s="534"/>
-      <c r="I32" s="535"/>
-      <c r="J32" s="536"/>
+      <c r="H32" s="538"/>
+      <c r="I32" s="539"/>
+      <c r="J32" s="540"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="524"/>
-      <c r="B33" s="540" t="str">
+      <c r="A33" s="531"/>
+      <c r="B33" s="526" t="str">
         <f>Данные!$A$29</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C33" s="541"/>
-      <c r="D33" s="542"/>
-      <c r="E33" s="530"/>
-      <c r="F33" s="531"/>
-      <c r="G33" s="533"/>
-      <c r="H33" s="537"/>
-      <c r="I33" s="538"/>
-      <c r="J33" s="539"/>
+      <c r="C33" s="527"/>
+      <c r="D33" s="528"/>
+      <c r="E33" s="551"/>
+      <c r="F33" s="535"/>
+      <c r="G33" s="537"/>
+      <c r="H33" s="541"/>
+      <c r="I33" s="542"/>
+      <c r="J33" s="543"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="523">
+      <c r="A34" s="530">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="525" t="s">
+      <c r="B34" s="548" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="526"/>
-      <c r="D34" s="527"/>
-      <c r="E34" s="528" t="str">
+      <c r="C34" s="549"/>
+      <c r="D34" s="550"/>
+      <c r="E34" s="532" t="str">
         <f>Данные!C19</f>
         <v>XIII-В-28-2-200-3</v>
       </c>
-      <c r="F34" s="529"/>
-      <c r="G34" s="532">
+      <c r="F34" s="533"/>
+      <c r="G34" s="536">
         <f>Данные!B19</f>
         <v>120</v>
       </c>
-      <c r="H34" s="534"/>
-      <c r="I34" s="535"/>
-      <c r="J34" s="536"/>
+      <c r="H34" s="538"/>
+      <c r="I34" s="539"/>
+      <c r="J34" s="540"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="524"/>
-      <c r="B35" s="540" t="str">
+      <c r="A35" s="531"/>
+      <c r="B35" s="526" t="str">
         <f>Данные!$A$29</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C35" s="541"/>
-      <c r="D35" s="542"/>
-      <c r="E35" s="530"/>
-      <c r="F35" s="531"/>
-      <c r="G35" s="533"/>
-      <c r="H35" s="537"/>
-      <c r="I35" s="538"/>
-      <c r="J35" s="539"/>
+      <c r="C35" s="527"/>
+      <c r="D35" s="528"/>
+      <c r="E35" s="551"/>
+      <c r="F35" s="535"/>
+      <c r="G35" s="537"/>
+      <c r="H35" s="541"/>
+      <c r="I35" s="542"/>
+      <c r="J35" s="543"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="523">
+      <c r="A36" s="530">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="525" t="s">
+      <c r="B36" s="548" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="526"/>
-      <c r="D36" s="527"/>
-      <c r="E36" s="528" t="str">
+      <c r="C36" s="549"/>
+      <c r="D36" s="550"/>
+      <c r="E36" s="532" t="str">
         <f>Данные!C20</f>
         <v>XIII-В-28-2-200-3</v>
       </c>
-      <c r="F36" s="529"/>
-      <c r="G36" s="532">
+      <c r="F36" s="533"/>
+      <c r="G36" s="536">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="H36" s="534"/>
-      <c r="I36" s="535"/>
-      <c r="J36" s="536"/>
+      <c r="H36" s="538"/>
+      <c r="I36" s="539"/>
+      <c r="J36" s="540"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="524"/>
-      <c r="B37" s="540" t="str">
+      <c r="A37" s="531"/>
+      <c r="B37" s="526" t="str">
         <f>Данные!$A$29</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C37" s="541"/>
-      <c r="D37" s="542"/>
-      <c r="E37" s="530"/>
-      <c r="F37" s="531"/>
-      <c r="G37" s="533"/>
-      <c r="H37" s="537"/>
-      <c r="I37" s="538"/>
-      <c r="J37" s="539"/>
+      <c r="C37" s="527"/>
+      <c r="D37" s="528"/>
+      <c r="E37" s="551"/>
+      <c r="F37" s="535"/>
+      <c r="G37" s="537"/>
+      <c r="H37" s="541"/>
+      <c r="I37" s="542"/>
+      <c r="J37" s="543"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="523">
+      <c r="A38" s="530">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="525" t="s">
+      <c r="B38" s="548" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="526"/>
-      <c r="D38" s="527"/>
-      <c r="E38" s="528" t="str">
+      <c r="C38" s="549"/>
+      <c r="D38" s="550"/>
+      <c r="E38" s="532" t="str">
         <f>Данные!C21</f>
         <v>XIII-В-28-2-200-3</v>
       </c>
-      <c r="F38" s="529"/>
-      <c r="G38" s="532">
+      <c r="F38" s="533"/>
+      <c r="G38" s="536">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="534"/>
-      <c r="I38" s="535"/>
-      <c r="J38" s="536"/>
+      <c r="H38" s="538"/>
+      <c r="I38" s="539"/>
+      <c r="J38" s="540"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="524"/>
-      <c r="B39" s="540" t="str">
+      <c r="A39" s="531"/>
+      <c r="B39" s="526" t="str">
         <f>Данные!$A$29</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C39" s="541"/>
-      <c r="D39" s="542"/>
-      <c r="E39" s="530"/>
-      <c r="F39" s="531"/>
-      <c r="G39" s="533"/>
-      <c r="H39" s="537"/>
-      <c r="I39" s="538"/>
-      <c r="J39" s="539"/>
+      <c r="C39" s="527"/>
+      <c r="D39" s="528"/>
+      <c r="E39" s="551"/>
+      <c r="F39" s="535"/>
+      <c r="G39" s="537"/>
+      <c r="H39" s="541"/>
+      <c r="I39" s="542"/>
+      <c r="J39" s="543"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="523">
+      <c r="A40" s="530">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="525" t="s">
+      <c r="B40" s="548" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="526"/>
-      <c r="D40" s="527"/>
-      <c r="E40" s="528" t="str">
+      <c r="C40" s="549"/>
+      <c r="D40" s="550"/>
+      <c r="E40" s="532" t="str">
         <f>Данные!C23</f>
         <v>XIII-В-28-2-200-3</v>
       </c>
-      <c r="F40" s="529"/>
-      <c r="G40" s="532">
+      <c r="F40" s="533"/>
+      <c r="G40" s="536">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="534"/>
-      <c r="I40" s="535"/>
-      <c r="J40" s="536"/>
+      <c r="H40" s="538"/>
+      <c r="I40" s="539"/>
+      <c r="J40" s="540"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="524"/>
-      <c r="B41" s="540" t="str">
+      <c r="A41" s="531"/>
+      <c r="B41" s="526" t="str">
         <f>Данные!$A$29</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C41" s="541"/>
-      <c r="D41" s="542"/>
-      <c r="E41" s="530"/>
-      <c r="F41" s="531"/>
-      <c r="G41" s="533"/>
-      <c r="H41" s="537"/>
-      <c r="I41" s="538"/>
-      <c r="J41" s="539"/>
+      <c r="C41" s="527"/>
+      <c r="D41" s="528"/>
+      <c r="E41" s="551"/>
+      <c r="F41" s="535"/>
+      <c r="G41" s="537"/>
+      <c r="H41" s="541"/>
+      <c r="I41" s="542"/>
+      <c r="J41" s="543"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="523">
+      <c r="A42" s="530">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="525" t="s">
+      <c r="B42" s="548" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="526"/>
-      <c r="D42" s="527"/>
-      <c r="E42" s="528" t="str">
+      <c r="C42" s="549"/>
+      <c r="D42" s="550"/>
+      <c r="E42" s="532" t="str">
         <f>Данные!C25</f>
         <v>XIII-В-28-2-200-3</v>
       </c>
-      <c r="F42" s="529"/>
-      <c r="G42" s="532">
+      <c r="F42" s="533"/>
+      <c r="G42" s="536">
         <f>Данные!B25</f>
         <v>20</v>
       </c>
-      <c r="H42" s="534"/>
-      <c r="I42" s="535"/>
-      <c r="J42" s="536"/>
+      <c r="H42" s="538"/>
+      <c r="I42" s="539"/>
+      <c r="J42" s="540"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="524"/>
-      <c r="B43" s="540" t="str">
+      <c r="A43" s="531"/>
+      <c r="B43" s="526" t="str">
         <f>Данные!$A$29</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C43" s="541"/>
-      <c r="D43" s="542"/>
-      <c r="E43" s="530"/>
-      <c r="F43" s="531"/>
-      <c r="G43" s="533"/>
-      <c r="H43" s="537"/>
-      <c r="I43" s="538"/>
-      <c r="J43" s="539"/>
+      <c r="C43" s="527"/>
+      <c r="D43" s="528"/>
+      <c r="E43" s="551"/>
+      <c r="F43" s="535"/>
+      <c r="G43" s="537"/>
+      <c r="H43" s="541"/>
+      <c r="I43" s="542"/>
+      <c r="J43" s="543"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="523">
+      <c r="A44" s="530">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="525" t="s">
+      <c r="B44" s="548" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="526"/>
-      <c r="D44" s="527"/>
-      <c r="E44" s="528" t="str">
+      <c r="C44" s="549"/>
+      <c r="D44" s="550"/>
+      <c r="E44" s="532" t="str">
         <f>Данные!C26</f>
         <v>XIII-В-28-2-200-3</v>
       </c>
-      <c r="F44" s="529"/>
-      <c r="G44" s="532">
+      <c r="F44" s="533"/>
+      <c r="G44" s="536">
         <f>Данные!B26</f>
         <v>20</v>
       </c>
-      <c r="H44" s="534"/>
-      <c r="I44" s="535"/>
-      <c r="J44" s="536"/>
+      <c r="H44" s="538"/>
+      <c r="I44" s="539"/>
+      <c r="J44" s="540"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="524"/>
-      <c r="B45" s="540" t="str">
+      <c r="A45" s="531"/>
+      <c r="B45" s="526" t="str">
         <f>Данные!$A$29</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C45" s="541"/>
-      <c r="D45" s="542"/>
-      <c r="E45" s="530"/>
-      <c r="F45" s="531"/>
-      <c r="G45" s="533"/>
-      <c r="H45" s="537"/>
-      <c r="I45" s="538"/>
-      <c r="J45" s="539"/>
+      <c r="C45" s="527"/>
+      <c r="D45" s="528"/>
+      <c r="E45" s="551"/>
+      <c r="F45" s="535"/>
+      <c r="G45" s="537"/>
+      <c r="H45" s="541"/>
+      <c r="I45" s="542"/>
+      <c r="J45" s="543"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="523">
+      <c r="A46" s="530">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="525" t="s">
+      <c r="B46" s="548" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="526"/>
-      <c r="D46" s="527"/>
-      <c r="E46" s="528" t="str">
+      <c r="C46" s="549"/>
+      <c r="D46" s="550"/>
+      <c r="E46" s="532" t="str">
         <f>Данные!C24</f>
         <v>XIII-В-28-2-200-3</v>
       </c>
-      <c r="F46" s="529"/>
-      <c r="G46" s="532">
+      <c r="F46" s="533"/>
+      <c r="G46" s="536">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="534"/>
-      <c r="I46" s="535"/>
-      <c r="J46" s="536"/>
+      <c r="H46" s="538"/>
+      <c r="I46" s="539"/>
+      <c r="J46" s="540"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="524"/>
-      <c r="B47" s="540" t="str">
+      <c r="A47" s="531"/>
+      <c r="B47" s="526" t="str">
         <f>Данные!$A$29</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C47" s="541"/>
-      <c r="D47" s="542"/>
-      <c r="E47" s="530"/>
-      <c r="F47" s="531"/>
-      <c r="G47" s="533"/>
-      <c r="H47" s="537"/>
-      <c r="I47" s="538"/>
-      <c r="J47" s="539"/>
+      <c r="C47" s="527"/>
+      <c r="D47" s="528"/>
+      <c r="E47" s="551"/>
+      <c r="F47" s="535"/>
+      <c r="G47" s="537"/>
+      <c r="H47" s="541"/>
+      <c r="I47" s="542"/>
+      <c r="J47" s="543"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11393,7 +11393,7 @@
         <v>72</v>
       </c>
       <c r="C51" s="304" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="304"/>
       <c r="E51" s="304"/>
@@ -11484,6 +11484,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11500,70 +11564,6 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11621,47 +11621,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="556"/>
-      <c r="C2" s="557"/>
-      <c r="D2" s="558"/>
-      <c r="E2" s="565" t="s">
+      <c r="B2" s="566"/>
+      <c r="C2" s="567"/>
+      <c r="D2" s="568"/>
+      <c r="E2" s="575" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="566"/>
-      <c r="G2" s="566"/>
-      <c r="H2" s="567"/>
-      <c r="I2" s="572" t="s">
+      <c r="F2" s="576"/>
+      <c r="G2" s="576"/>
+      <c r="H2" s="577"/>
+      <c r="I2" s="582" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="573"/>
-      <c r="K2" s="576">
+      <c r="J2" s="583"/>
+      <c r="K2" s="586">
         <f>Данные!B14</f>
         <v>30</v>
       </c>
-      <c r="L2" s="577"/>
+      <c r="L2" s="587"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="568"/>
-      <c r="Q2" s="568"/>
+      <c r="P2" s="578"/>
+      <c r="Q2" s="578"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="559"/>
-      <c r="C3" s="560"/>
-      <c r="D3" s="561"/>
-      <c r="E3" s="569" t="s">
+      <c r="B3" s="569"/>
+      <c r="C3" s="570"/>
+      <c r="D3" s="571"/>
+      <c r="E3" s="579" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="570"/>
-      <c r="G3" s="570"/>
-      <c r="H3" s="571"/>
-      <c r="I3" s="574"/>
-      <c r="J3" s="575"/>
-      <c r="K3" s="578"/>
-      <c r="L3" s="579"/>
+      <c r="F3" s="580"/>
+      <c r="G3" s="580"/>
+      <c r="H3" s="581"/>
+      <c r="I3" s="584"/>
+      <c r="J3" s="585"/>
+      <c r="K3" s="588"/>
+      <c r="L3" s="589"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11672,9 +11672,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="562"/>
-      <c r="C4" s="563"/>
-      <c r="D4" s="564"/>
+      <c r="B4" s="572"/>
+      <c r="C4" s="573"/>
+      <c r="D4" s="574"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11693,10 +11693,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="593" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
+      <c r="C5" s="594"/>
       <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -11705,8 +11705,8 @@
       <c r="F5" s="508"/>
       <c r="G5" s="508"/>
       <c r="H5" s="509"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
+      <c r="I5" s="555"/>
+      <c r="J5" s="556"/>
       <c r="K5" s="508"/>
       <c r="L5" s="509"/>
       <c r="M5" s="74"/>
@@ -11719,20 +11719,20 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="593" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="587"/>
+      <c r="C6" s="595"/>
       <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="588"/>
-      <c r="F6" s="588"/>
-      <c r="G6" s="588"/>
-      <c r="H6" s="589"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
+      <c r="E6" s="596"/>
+      <c r="F6" s="596"/>
+      <c r="G6" s="596"/>
+      <c r="H6" s="597"/>
+      <c r="I6" s="555"/>
+      <c r="J6" s="556"/>
       <c r="K6" s="508"/>
       <c r="L6" s="509"/>
       <c r="M6" s="74"/>
@@ -11745,22 +11745,22 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="593" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="594"/>
+      <c r="C7" s="558"/>
       <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="595"/>
-      <c r="F7" s="595"/>
-      <c r="G7" s="595"/>
-      <c r="H7" s="596"/>
-      <c r="I7" s="593" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="557" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="597"/>
+      <c r="J7" s="561"/>
       <c r="K7" s="498">
         <f>Данные!D11</f>
         <v>44358</v>
@@ -12160,7 +12160,7 @@
         <v>35</v>
       </c>
       <c r="C20" s="104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D20" s="104">
         <v>0.05</v>
@@ -12226,7 +12226,7 @@
         <v>41</v>
       </c>
       <c r="C22" s="351" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" s="104">
         <v>0.02</v>
@@ -12255,12 +12255,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="590" t="s">
+      <c r="B23" s="552" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="591"/>
-      <c r="D23" s="591"/>
-      <c r="E23" s="592"/>
+      <c r="C23" s="553"/>
+      <c r="D23" s="553"/>
+      <c r="E23" s="554"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12282,12 +12282,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="580" t="s">
+      <c r="B24" s="590" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="581"/>
-      <c r="D24" s="581"/>
-      <c r="E24" s="582"/>
+      <c r="C24" s="591"/>
+      <c r="D24" s="591"/>
+      <c r="E24" s="592"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12330,35 +12330,28 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="555" t="s">
+      <c r="K27" s="565" t="s">
         <v>133</v>
       </c>
-      <c r="L27" s="555"/>
-      <c r="M27" s="555"/>
+      <c r="L27" s="565"/>
+      <c r="M27" s="565"/>
       <c r="N27" s="447"/>
       <c r="O27" s="447"/>
       <c r="P27" s="463"/>
       <c r="Q27" s="463"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="552" t="s">
+      <c r="N28" s="562" t="s">
         <v>137</v>
       </c>
-      <c r="O28" s="552"/>
-      <c r="P28" s="553" t="s">
+      <c r="O28" s="562"/>
+      <c r="P28" s="563" t="s">
         <v>138</v>
       </c>
-      <c r="Q28" s="554"/>
+      <c r="Q28" s="564"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="K27:M27"/>
@@ -12375,6 +12368,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
@@ -12440,50 +12440,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="604">
+      <c r="B2" s="601">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="605"/>
-      <c r="D2" s="606"/>
-      <c r="E2" s="613" t="s">
+      <c r="C2" s="602"/>
+      <c r="D2" s="603"/>
+      <c r="E2" s="610" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="614"/>
-      <c r="G2" s="614"/>
-      <c r="H2" s="615"/>
-      <c r="I2" s="619" t="s">
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="612"/>
+      <c r="I2" s="616" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="620"/>
-      <c r="K2" s="623">
+      <c r="J2" s="617"/>
+      <c r="K2" s="620">
         <f>Данные!B15</f>
         <v>30</v>
       </c>
-      <c r="L2" s="624"/>
+      <c r="L2" s="621"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="568"/>
-      <c r="Q2" s="568"/>
+      <c r="P2" s="578"/>
+      <c r="Q2" s="578"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="607"/>
-      <c r="C3" s="608"/>
-      <c r="D3" s="609"/>
-      <c r="E3" s="616" t="s">
+      <c r="B3" s="604"/>
+      <c r="C3" s="605"/>
+      <c r="D3" s="606"/>
+      <c r="E3" s="613" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="617"/>
-      <c r="G3" s="617"/>
-      <c r="H3" s="618"/>
-      <c r="I3" s="621"/>
-      <c r="J3" s="622"/>
-      <c r="K3" s="625"/>
-      <c r="L3" s="626"/>
+      <c r="F3" s="614"/>
+      <c r="G3" s="614"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="618"/>
+      <c r="J3" s="619"/>
+      <c r="K3" s="622"/>
+      <c r="L3" s="623"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12494,9 +12494,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="610"/>
-      <c r="C4" s="611"/>
-      <c r="D4" s="612"/>
+      <c r="B4" s="607"/>
+      <c r="C4" s="608"/>
+      <c r="D4" s="609"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12515,10 +12515,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="593" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="598"/>
+      <c r="C5" s="624"/>
       <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -12527,9 +12527,9 @@
       <c r="F5" s="508"/>
       <c r="G5" s="508"/>
       <c r="H5" s="509"/>
-      <c r="I5" s="599"/>
-      <c r="J5" s="600"/>
-      <c r="K5" s="601"/>
+      <c r="I5" s="625"/>
+      <c r="J5" s="626"/>
+      <c r="K5" s="627"/>
       <c r="L5" s="509"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
@@ -12541,21 +12541,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="593" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="598"/>
+      <c r="C6" s="624"/>
       <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="588"/>
-      <c r="F6" s="588"/>
-      <c r="G6" s="588"/>
-      <c r="H6" s="589"/>
-      <c r="I6" s="599"/>
-      <c r="J6" s="600"/>
-      <c r="K6" s="601"/>
+      <c r="E6" s="596"/>
+      <c r="F6" s="596"/>
+      <c r="G6" s="596"/>
+      <c r="H6" s="597"/>
+      <c r="I6" s="625"/>
+      <c r="J6" s="626"/>
+      <c r="K6" s="627"/>
       <c r="L6" s="509"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
@@ -12567,22 +12567,22 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="593" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="602"/>
+      <c r="C7" s="628"/>
       <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="595"/>
-      <c r="F7" s="595"/>
-      <c r="G7" s="595"/>
-      <c r="H7" s="596"/>
-      <c r="I7" s="603" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="629" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="602"/>
+      <c r="J7" s="628"/>
       <c r="K7" s="498">
         <f>Данные!D11</f>
         <v>44358</v>
@@ -12656,7 +12656,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D10" s="93">
         <v>0.05</v>
@@ -12784,12 +12784,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="628" t="s">
+      <c r="B14" s="599" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="629"/>
-      <c r="D14" s="629"/>
-      <c r="E14" s="629"/>
+      <c r="C14" s="600"/>
+      <c r="D14" s="600"/>
+      <c r="E14" s="600"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12811,13 +12811,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="590" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="591"/>
-      <c r="D15" s="591"/>
-      <c r="E15" s="591"/>
-      <c r="F15" s="627"/>
+      <c r="B15" s="552" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="553"/>
+      <c r="D15" s="553"/>
+      <c r="E15" s="553"/>
+      <c r="F15" s="598"/>
       <c r="G15" s="56" t="s">
         <v>76</v>
       </c>
@@ -12836,12 +12836,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="580" t="s">
+      <c r="B16" s="590" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="581"/>
-      <c r="D16" s="581"/>
-      <c r="E16" s="582"/>
+      <c r="C16" s="591"/>
+      <c r="D16" s="591"/>
+      <c r="E16" s="592"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12888,39 +12888,28 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="555" t="s">
+      <c r="L19" s="565" t="s">
         <v>133</v>
       </c>
-      <c r="M19" s="555"/>
-      <c r="N19" s="555"/>
+      <c r="M19" s="565"/>
+      <c r="N19" s="565"/>
       <c r="O19" s="447"/>
       <c r="P19" s="447"/>
       <c r="Q19" s="463"/>
       <c r="R19" s="463"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="552" t="s">
+      <c r="O20" s="562" t="s">
         <v>137</v>
       </c>
-      <c r="P20" s="552"/>
-      <c r="Q20" s="553" t="s">
+      <c r="P20" s="562"/>
+      <c r="Q20" s="563" t="s">
         <v>138</v>
       </c>
-      <c r="R20" s="554"/>
+      <c r="R20" s="564"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12934,6 +12923,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="notBetween">
@@ -13007,47 +13007,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="556"/>
-      <c r="C2" s="557"/>
-      <c r="D2" s="558"/>
-      <c r="E2" s="565" t="s">
+      <c r="B2" s="566"/>
+      <c r="C2" s="567"/>
+      <c r="D2" s="568"/>
+      <c r="E2" s="575" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="566"/>
-      <c r="G2" s="566"/>
-      <c r="H2" s="567"/>
-      <c r="I2" s="572" t="s">
+      <c r="F2" s="576"/>
+      <c r="G2" s="576"/>
+      <c r="H2" s="577"/>
+      <c r="I2" s="582" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="573"/>
-      <c r="K2" s="576">
+      <c r="J2" s="583"/>
+      <c r="K2" s="586">
         <f>Данные!B16</f>
         <v>50</v>
       </c>
-      <c r="L2" s="577"/>
+      <c r="L2" s="587"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="568"/>
-      <c r="Q2" s="568"/>
+      <c r="P2" s="578"/>
+      <c r="Q2" s="578"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="559"/>
-      <c r="C3" s="560"/>
-      <c r="D3" s="561"/>
-      <c r="E3" s="569" t="s">
+      <c r="B3" s="569"/>
+      <c r="C3" s="570"/>
+      <c r="D3" s="571"/>
+      <c r="E3" s="579" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="570"/>
-      <c r="G3" s="570"/>
-      <c r="H3" s="571"/>
-      <c r="I3" s="574"/>
-      <c r="J3" s="575"/>
-      <c r="K3" s="578"/>
-      <c r="L3" s="579"/>
+      <c r="F3" s="580"/>
+      <c r="G3" s="580"/>
+      <c r="H3" s="581"/>
+      <c r="I3" s="584"/>
+      <c r="J3" s="585"/>
+      <c r="K3" s="588"/>
+      <c r="L3" s="589"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13058,9 +13058,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="562"/>
-      <c r="C4" s="563"/>
-      <c r="D4" s="564"/>
+      <c r="B4" s="572"/>
+      <c r="C4" s="573"/>
+      <c r="D4" s="574"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13079,10 +13079,10 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="593" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
+      <c r="C5" s="594"/>
       <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -13091,8 +13091,8 @@
       <c r="F5" s="508"/>
       <c r="G5" s="508"/>
       <c r="H5" s="509"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
+      <c r="I5" s="555"/>
+      <c r="J5" s="556"/>
       <c r="K5" s="508"/>
       <c r="L5" s="509"/>
       <c r="M5" s="74"/>
@@ -13105,20 +13105,20 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="593" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="587"/>
+      <c r="C6" s="595"/>
       <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="588"/>
-      <c r="F6" s="588"/>
-      <c r="G6" s="588"/>
-      <c r="H6" s="589"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
+      <c r="E6" s="596"/>
+      <c r="F6" s="596"/>
+      <c r="G6" s="596"/>
+      <c r="H6" s="597"/>
+      <c r="I6" s="555"/>
+      <c r="J6" s="556"/>
       <c r="K6" s="508"/>
       <c r="L6" s="509"/>
       <c r="M6" s="74"/>
@@ -13131,22 +13131,22 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="593" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="594"/>
+      <c r="C7" s="558"/>
       <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="595"/>
-      <c r="F7" s="595"/>
-      <c r="G7" s="595"/>
-      <c r="H7" s="596"/>
-      <c r="I7" s="593" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="557" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="597"/>
+      <c r="J7" s="561"/>
       <c r="K7" s="498">
         <f>Данные!D11</f>
         <v>44358</v>
@@ -13511,7 +13511,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="104" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" s="104">
         <v>0.05</v>
@@ -13642,17 +13642,24 @@
       <c r="R23" s="463"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="552" t="s">
+      <c r="O24" s="562" t="s">
         <v>137</v>
       </c>
-      <c r="P24" s="552"/>
-      <c r="Q24" s="553" t="s">
+      <c r="P24" s="562"/>
+      <c r="Q24" s="563" t="s">
         <v>138</v>
       </c>
-      <c r="R24" s="554"/>
+      <c r="R24" s="564"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -13667,13 +13674,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
@@ -13741,24 +13741,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="556"/>
-      <c r="C2" s="557"/>
-      <c r="D2" s="558"/>
-      <c r="E2" s="565" t="s">
+      <c r="B2" s="566"/>
+      <c r="C2" s="567"/>
+      <c r="D2" s="568"/>
+      <c r="E2" s="575" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="566"/>
-      <c r="G2" s="566"/>
-      <c r="H2" s="567"/>
-      <c r="I2" s="572" t="s">
+      <c r="F2" s="576"/>
+      <c r="G2" s="576"/>
+      <c r="H2" s="577"/>
+      <c r="I2" s="582" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="573"/>
-      <c r="K2" s="576">
+      <c r="J2" s="583"/>
+      <c r="K2" s="586">
         <f>Данные!B17</f>
         <v>50</v>
       </c>
-      <c r="L2" s="577"/>
+      <c r="L2" s="587"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -13769,19 +13769,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="559"/>
-      <c r="C3" s="560"/>
-      <c r="D3" s="561"/>
-      <c r="E3" s="569" t="s">
+      <c r="B3" s="569"/>
+      <c r="C3" s="570"/>
+      <c r="D3" s="571"/>
+      <c r="E3" s="579" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="570"/>
-      <c r="G3" s="570"/>
-      <c r="H3" s="571"/>
-      <c r="I3" s="574"/>
-      <c r="J3" s="575"/>
-      <c r="K3" s="578"/>
-      <c r="L3" s="579"/>
+      <c r="F3" s="580"/>
+      <c r="G3" s="580"/>
+      <c r="H3" s="581"/>
+      <c r="I3" s="584"/>
+      <c r="J3" s="585"/>
+      <c r="K3" s="588"/>
+      <c r="L3" s="589"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13792,9 +13792,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="562"/>
-      <c r="C4" s="563"/>
-      <c r="D4" s="564"/>
+      <c r="B4" s="572"/>
+      <c r="C4" s="573"/>
+      <c r="D4" s="574"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13813,10 +13813,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="593" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
+      <c r="C5" s="594"/>
       <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -13825,8 +13825,8 @@
       <c r="F5" s="508"/>
       <c r="G5" s="508"/>
       <c r="H5" s="509"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
+      <c r="I5" s="555"/>
+      <c r="J5" s="556"/>
       <c r="K5" s="508"/>
       <c r="L5" s="509"/>
       <c r="M5" s="21"/>
@@ -13839,20 +13839,20 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="593" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="587"/>
+      <c r="C6" s="595"/>
       <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="588"/>
-      <c r="F6" s="588"/>
-      <c r="G6" s="588"/>
-      <c r="H6" s="589"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
+      <c r="E6" s="596"/>
+      <c r="F6" s="596"/>
+      <c r="G6" s="596"/>
+      <c r="H6" s="597"/>
+      <c r="I6" s="555"/>
+      <c r="J6" s="556"/>
       <c r="K6" s="508"/>
       <c r="L6" s="509"/>
       <c r="M6" s="21"/>
@@ -13865,22 +13865,22 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="593" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="594"/>
+      <c r="C7" s="558"/>
       <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="595"/>
-      <c r="F7" s="595"/>
-      <c r="G7" s="595"/>
-      <c r="H7" s="596"/>
-      <c r="I7" s="593" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="557" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="597"/>
+      <c r="J7" s="561"/>
       <c r="K7" s="498">
         <f>Данные!D11</f>
         <v>44358</v>
@@ -13954,7 +13954,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="374" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" s="44">
         <v>0.05</v>
@@ -14180,17 +14180,23 @@
       <c r="R18" s="463"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="552" t="s">
+      <c r="O19" s="562" t="s">
         <v>137</v>
       </c>
-      <c r="P19" s="552"/>
-      <c r="Q19" s="553" t="s">
+      <c r="P19" s="562"/>
+      <c r="Q19" s="563" t="s">
         <v>138</v>
       </c>
-      <c r="R19" s="554"/>
+      <c r="R19" s="564"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
@@ -14206,12 +14212,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -14283,24 +14283,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="604"/>
-      <c r="C2" s="605"/>
-      <c r="D2" s="606"/>
-      <c r="E2" s="613" t="s">
+      <c r="B2" s="601"/>
+      <c r="C2" s="602"/>
+      <c r="D2" s="603"/>
+      <c r="E2" s="610" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="614"/>
-      <c r="G2" s="614"/>
-      <c r="H2" s="615"/>
-      <c r="I2" s="619" t="s">
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="612"/>
+      <c r="I2" s="616" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="620"/>
-      <c r="K2" s="623">
+      <c r="J2" s="617"/>
+      <c r="K2" s="620">
         <f>Данные!B18</f>
         <v>100</v>
       </c>
-      <c r="L2" s="624"/>
+      <c r="L2" s="621"/>
       <c r="M2" s="632"/>
       <c r="N2" s="633"/>
       <c r="O2" s="633"/>
@@ -14311,19 +14311,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="607"/>
-      <c r="C3" s="608"/>
-      <c r="D3" s="609"/>
-      <c r="E3" s="616" t="s">
+      <c r="B3" s="604"/>
+      <c r="C3" s="605"/>
+      <c r="D3" s="606"/>
+      <c r="E3" s="613" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="617"/>
-      <c r="G3" s="617"/>
-      <c r="H3" s="618"/>
-      <c r="I3" s="621"/>
-      <c r="J3" s="622"/>
-      <c r="K3" s="625"/>
-      <c r="L3" s="626"/>
+      <c r="F3" s="614"/>
+      <c r="G3" s="614"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="618"/>
+      <c r="J3" s="619"/>
+      <c r="K3" s="622"/>
+      <c r="L3" s="623"/>
       <c r="M3" s="635"/>
       <c r="N3" s="636"/>
       <c r="O3" s="636"/>
@@ -14334,9 +14334,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="610"/>
-      <c r="C4" s="611"/>
-      <c r="D4" s="612"/>
+      <c r="B4" s="607"/>
+      <c r="C4" s="608"/>
+      <c r="D4" s="609"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14355,10 +14355,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="593" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="598"/>
+      <c r="C5" s="624"/>
       <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -14367,9 +14367,9 @@
       <c r="F5" s="508"/>
       <c r="G5" s="508"/>
       <c r="H5" s="509"/>
-      <c r="I5" s="599"/>
-      <c r="J5" s="600"/>
-      <c r="K5" s="601"/>
+      <c r="I5" s="625"/>
+      <c r="J5" s="626"/>
+      <c r="K5" s="627"/>
       <c r="L5" s="509"/>
       <c r="M5" s="635"/>
       <c r="N5" s="636"/>
@@ -14381,21 +14381,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="593" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="598"/>
+      <c r="C6" s="624"/>
       <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="588"/>
-      <c r="F6" s="588"/>
-      <c r="G6" s="588"/>
-      <c r="H6" s="589"/>
-      <c r="I6" s="599"/>
-      <c r="J6" s="600"/>
-      <c r="K6" s="601"/>
+      <c r="E6" s="596"/>
+      <c r="F6" s="596"/>
+      <c r="G6" s="596"/>
+      <c r="H6" s="597"/>
+      <c r="I6" s="625"/>
+      <c r="J6" s="626"/>
+      <c r="K6" s="627"/>
       <c r="L6" s="509"/>
       <c r="M6" s="635"/>
       <c r="N6" s="636"/>
@@ -14407,22 +14407,22 @@
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="593" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="602"/>
+      <c r="C7" s="628"/>
       <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="595"/>
-      <c r="F7" s="595"/>
-      <c r="G7" s="595"/>
-      <c r="H7" s="596"/>
-      <c r="I7" s="603" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="629" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="602"/>
+      <c r="J7" s="628"/>
       <c r="K7" s="498">
         <f>Данные!D11</f>
         <v>44358</v>
@@ -14847,12 +14847,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="580" t="s">
+      <c r="B21" s="590" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="581"/>
-      <c r="D21" s="581"/>
-      <c r="E21" s="582"/>
+      <c r="C21" s="591"/>
+      <c r="D21" s="591"/>
+      <c r="E21" s="592"/>
       <c r="F21" s="114" t="s">
         <v>16</v>
       </c>
@@ -14908,23 +14908,17 @@
       <c r="R24" s="463"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O25" s="552" t="s">
+      <c r="O25" s="562" t="s">
         <v>137</v>
       </c>
-      <c r="P25" s="552"/>
-      <c r="Q25" s="553" t="s">
+      <c r="P25" s="562"/>
+      <c r="Q25" s="563" t="s">
         <v>138</v>
       </c>
-      <c r="R25" s="554"/>
+      <c r="R25" s="564"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="B21:E21"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="B2:D4"/>
@@ -14941,6 +14935,12 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
@@ -15002,24 +15002,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="604"/>
-      <c r="C2" s="605"/>
-      <c r="D2" s="606"/>
-      <c r="E2" s="613" t="s">
+      <c r="B2" s="601"/>
+      <c r="C2" s="602"/>
+      <c r="D2" s="603"/>
+      <c r="E2" s="610" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="614"/>
-      <c r="G2" s="614"/>
-      <c r="H2" s="615"/>
-      <c r="I2" s="619" t="s">
+      <c r="F2" s="611"/>
+      <c r="G2" s="611"/>
+      <c r="H2" s="612"/>
+      <c r="I2" s="616" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="620"/>
-      <c r="K2" s="623">
+      <c r="J2" s="617"/>
+      <c r="K2" s="620">
         <f>Данные!B19</f>
         <v>120</v>
       </c>
-      <c r="L2" s="624"/>
+      <c r="L2" s="621"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -15030,19 +15030,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="607"/>
-      <c r="C3" s="608"/>
-      <c r="D3" s="609"/>
-      <c r="E3" s="616" t="s">
+      <c r="B3" s="604"/>
+      <c r="C3" s="605"/>
+      <c r="D3" s="606"/>
+      <c r="E3" s="613" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="617"/>
-      <c r="G3" s="617"/>
-      <c r="H3" s="618"/>
-      <c r="I3" s="621"/>
-      <c r="J3" s="622"/>
-      <c r="K3" s="625"/>
-      <c r="L3" s="626"/>
+      <c r="F3" s="614"/>
+      <c r="G3" s="614"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="618"/>
+      <c r="J3" s="619"/>
+      <c r="K3" s="622"/>
+      <c r="L3" s="623"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -15053,9 +15053,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="610"/>
-      <c r="C4" s="611"/>
-      <c r="D4" s="612"/>
+      <c r="B4" s="607"/>
+      <c r="C4" s="608"/>
+      <c r="D4" s="609"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -15074,10 +15074,10 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="583" t="s">
+      <c r="B5" s="593" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="598"/>
+      <c r="C5" s="624"/>
       <c r="D5" s="507" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
@@ -15086,9 +15086,9 @@
       <c r="F5" s="508"/>
       <c r="G5" s="508"/>
       <c r="H5" s="509"/>
-      <c r="I5" s="599"/>
-      <c r="J5" s="600"/>
-      <c r="K5" s="601"/>
+      <c r="I5" s="625"/>
+      <c r="J5" s="626"/>
+      <c r="K5" s="627"/>
       <c r="L5" s="509"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
@@ -15100,21 +15100,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="583" t="s">
+      <c r="B6" s="593" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="598"/>
+      <c r="C6" s="624"/>
       <c r="D6" s="501" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="588"/>
-      <c r="F6" s="588"/>
-      <c r="G6" s="588"/>
-      <c r="H6" s="589"/>
-      <c r="I6" s="599"/>
-      <c r="J6" s="600"/>
-      <c r="K6" s="601"/>
+      <c r="E6" s="596"/>
+      <c r="F6" s="596"/>
+      <c r="G6" s="596"/>
+      <c r="H6" s="597"/>
+      <c r="I6" s="625"/>
+      <c r="J6" s="626"/>
+      <c r="K6" s="627"/>
       <c r="L6" s="509"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
@@ -15126,22 +15126,22 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="593" t="s">
+      <c r="B7" s="557" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="602"/>
+      <c r="C7" s="628"/>
       <c r="D7" s="510">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="595"/>
-      <c r="F7" s="595"/>
-      <c r="G7" s="595"/>
-      <c r="H7" s="596"/>
-      <c r="I7" s="603" t="s">
+      <c r="E7" s="559"/>
+      <c r="F7" s="559"/>
+      <c r="G7" s="559"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="629" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="602"/>
+      <c r="J7" s="628"/>
       <c r="K7" s="498">
         <f>Данные!D11</f>
         <v>44358</v>
@@ -15409,12 +15409,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="580" t="s">
+      <c r="B16" s="590" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="581"/>
-      <c r="D16" s="581"/>
-      <c r="E16" s="582"/>
+      <c r="C16" s="591"/>
+      <c r="D16" s="591"/>
+      <c r="E16" s="592"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15470,27 +15470,17 @@
       <c r="R19" s="463"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="552" t="s">
+      <c r="O20" s="562" t="s">
         <v>137</v>
       </c>
-      <c r="P20" s="552"/>
-      <c r="Q20" s="553" t="s">
+      <c r="P20" s="562"/>
+      <c r="Q20" s="563" t="s">
         <v>138</v>
       </c>
-      <c r="R20" s="554"/>
+      <c r="R20" s="564"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -15503,6 +15493,16 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
